--- a/华为第二阶段需求/功耗对比/2D SDF 静态/静态.xlsx
+++ b/华为第二阶段需求/功耗对比/2D SDF 静态/静态.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="17655"/>
+    <workbookView windowWidth="13404" windowHeight="4656"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>自动生成</t>
   </si>
@@ -36,6 +36,15 @@
   </si>
   <si>
     <t>差异率(百分比)</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>068</t>
   </si>
   <si>
     <t>比较度量单位为归一化电流(mA).</t>
@@ -677,6 +686,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1204,17 +1216,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="17.1083333333333" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="17.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="20.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1305,52 +1317,151 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="B7" s="3">
+        <v>189.43</v>
+      </c>
+      <c r="C7" s="3">
+        <v>189.18</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:D15" si="0">((B7/C7)-1)</f>
+        <v>0.00132149275821969</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
+      <c r="A8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3">
+        <v>201.73</v>
+      </c>
+      <c r="C8" s="3">
+        <v>200.89</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.00418139280203089</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3">
+        <v>202.56</v>
+      </c>
+      <c r="C9" s="3">
+        <v>204.88</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.0113237016790316</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
+      <c r="A10" s="2">
+        <v>104</v>
+      </c>
+      <c r="B10" s="3">
+        <v>210.27</v>
+      </c>
+      <c r="C10" s="3">
+        <v>207.93</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.0112537873322753</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
+      <c r="A11" s="2">
+        <v>172</v>
+      </c>
+      <c r="B11" s="3">
+        <v>203.92</v>
+      </c>
+      <c r="C11" s="3">
+        <v>202.36</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.00770903340581119</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
+      <c r="A12" s="2">
+        <v>195</v>
+      </c>
+      <c r="B12" s="3">
+        <v>210.61</v>
+      </c>
+      <c r="C12" s="3">
+        <v>207.98</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.0126454466775652</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
+      <c r="A13" s="2">
+        <v>329</v>
+      </c>
+      <c r="B13" s="3">
+        <v>207.71</v>
+      </c>
+      <c r="C13" s="3">
+        <v>208.8</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.00522030651340999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
+        <v>346</v>
+      </c>
+      <c r="B14" s="3">
+        <v>206.91</v>
+      </c>
+      <c r="C14" s="3">
+        <v>205.43</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.00720440052572657</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
+        <v>431</v>
+      </c>
+      <c r="B15" s="3">
+        <v>210.88</v>
+      </c>
+      <c r="C15" s="3">
+        <v>211.48</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.00283714772082466</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A16:D16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
